--- a/v3/v3.xlsx
+++ b/v3/v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
